--- a/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_CATEGORY/zero.directory.xlsx
+++ b/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_CATEGORY/zero.directory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/workshop/zero-ws/zero-plugins-extension/Zero.Extension.Runtime.Ambient.DB/src/main/resources/plugins/zero-extension-runtime-ambient/data/X_CATEGORY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEF894-DBAB-F244-9FDC-8CFB97CBF6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8DE0FF-FAD2-FD46-B48F-C0472515074F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-48840" yWindow="-840" windowWidth="34160" windowHeight="25700" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="11660" yWindow="4180" windowWidth="27520" windowHeight="19500" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-CDATA" sheetId="7" r:id="rId1"/>
@@ -149,22 +149,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>treeConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE:class</t>
+  </si>
+  <si>
+    <t>CODE:config</t>
+  </si>
+  <si>
     <t>treeComponent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>treeConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE:class</t>
-  </si>
-  <si>
-    <t>CODE:config</t>
   </si>
 </sst>
 </file>
@@ -704,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{500280C7-B0AC-7C45-9420-F2551253A777}">
   <dimension ref="A2:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -806,10 +805,10 @@
         <v>20</v>
       </c>
       <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="66" x14ac:dyDescent="0.2">
@@ -821,7 +820,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>28</v>
@@ -839,10 +838,10 @@
         <v>21</v>
       </c>
       <c r="J5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="K5" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="66" x14ac:dyDescent="0.2">
@@ -872,10 +871,10 @@
         <v>21</v>
       </c>
       <c r="J6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
